--- a/TestData/test_login_orange_hrm.xlsx
+++ b/TestData/test_login_orange_hrm.xlsx
@@ -441,7 +441,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -512,7 +512,11 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="D3" s="1" t="n"/>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -530,7 +534,11 @@
           <t>FAIL</t>
         </is>
       </c>
-      <c r="D4" s="1" t="n"/>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
